--- a/config_2.9/task_server.xlsx
+++ b/config_2.9/task_server.xlsx
@@ -1734,10 +1734,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_gdn_xnfd</t>
+    <t>_common_rank_gdn_004_jzbd_rank</t>
   </si>
   <si>
-    <t>_common_rank_gdn_004_jzbd_rank</t>
+    <t>prop_fish_drop_act_0</t>
   </si>
 </sst>
 </file>
@@ -2098,13 +2098,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11169,8 +11169,8 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13290,7 +13290,7 @@
       <c r="B116" s="69">
         <v>110</v>
       </c>
-      <c r="C116" s="73" t="s">
+      <c r="C116" s="71" t="s">
         <v>413</v>
       </c>
       <c r="D116" s="69">
@@ -13307,8 +13307,8 @@
       <c r="B117" s="69">
         <v>110</v>
       </c>
-      <c r="C117" s="73" t="s">
-        <v>428</v>
+      <c r="C117" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="D117" s="69">
         <v>10</v>
@@ -13326,8 +13326,8 @@
       <c r="B118" s="69">
         <v>110</v>
       </c>
-      <c r="C118" s="73" t="s">
-        <v>429</v>
+      <c r="C118" s="71" t="s">
+        <v>428</v>
       </c>
       <c r="D118" s="69">
         <v>10</v>
@@ -13345,7 +13345,7 @@
       <c r="B119" s="69">
         <v>111</v>
       </c>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="71" t="s">
         <v>413</v>
       </c>
       <c r="D119" s="69">
@@ -13362,8 +13362,8 @@
       <c r="B120" s="69">
         <v>111</v>
       </c>
-      <c r="C120" s="73" t="s">
-        <v>428</v>
+      <c r="C120" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="D120" s="69">
         <v>10</v>
@@ -13381,8 +13381,8 @@
       <c r="B121" s="69">
         <v>111</v>
       </c>
-      <c r="C121" s="73" t="s">
-        <v>429</v>
+      <c r="C121" s="71" t="s">
+        <v>428</v>
       </c>
       <c r="D121" s="69">
         <v>10</v>
@@ -13400,7 +13400,7 @@
       <c r="B122" s="69">
         <v>112</v>
       </c>
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="71" t="s">
         <v>413</v>
       </c>
       <c r="D122" s="69">
@@ -13417,8 +13417,8 @@
       <c r="B123" s="69">
         <v>112</v>
       </c>
-      <c r="C123" s="73" t="s">
-        <v>428</v>
+      <c r="C123" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="D123" s="69">
         <v>10</v>
@@ -13436,8 +13436,8 @@
       <c r="B124" s="69">
         <v>112</v>
       </c>
-      <c r="C124" s="73" t="s">
-        <v>429</v>
+      <c r="C124" s="71" t="s">
+        <v>428</v>
       </c>
       <c r="D124" s="69">
         <v>10</v>
@@ -13455,7 +13455,7 @@
       <c r="B125" s="69">
         <v>113</v>
       </c>
-      <c r="C125" s="73" t="s">
+      <c r="C125" s="71" t="s">
         <v>413</v>
       </c>
       <c r="D125" s="69">
@@ -13472,8 +13472,8 @@
       <c r="B126" s="69">
         <v>113</v>
       </c>
-      <c r="C126" s="73" t="s">
-        <v>428</v>
+      <c r="C126" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="D126" s="69">
         <v>10</v>
@@ -13491,8 +13491,8 @@
       <c r="B127" s="69">
         <v>113</v>
       </c>
-      <c r="C127" s="73" t="s">
-        <v>429</v>
+      <c r="C127" s="71" t="s">
+        <v>428</v>
       </c>
       <c r="D127" s="69">
         <v>10</v>
@@ -13510,7 +13510,7 @@
       <c r="B128" s="69">
         <v>114</v>
       </c>
-      <c r="C128" s="73" t="s">
+      <c r="C128" s="71" t="s">
         <v>413</v>
       </c>
       <c r="D128" s="69">
@@ -13527,8 +13527,8 @@
       <c r="B129" s="69">
         <v>114</v>
       </c>
-      <c r="C129" s="73" t="s">
-        <v>428</v>
+      <c r="C129" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="D129" s="69">
         <v>10</v>
@@ -13546,8 +13546,8 @@
       <c r="B130" s="69">
         <v>114</v>
       </c>
-      <c r="C130" s="73" t="s">
-        <v>429</v>
+      <c r="C130" s="71" t="s">
+        <v>428</v>
       </c>
       <c r="D130" s="69">
         <v>10</v>
@@ -13565,7 +13565,7 @@
       <c r="B131" s="69">
         <v>115</v>
       </c>
-      <c r="C131" s="73" t="s">
+      <c r="C131" s="71" t="s">
         <v>414</v>
       </c>
       <c r="D131" s="69">
@@ -13582,8 +13582,8 @@
       <c r="B132" s="69">
         <v>115</v>
       </c>
-      <c r="C132" s="73" t="s">
-        <v>428</v>
+      <c r="C132" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="D132" s="69">
         <v>10</v>
@@ -13601,8 +13601,8 @@
       <c r="B133" s="69">
         <v>115</v>
       </c>
-      <c r="C133" s="73" t="s">
-        <v>429</v>
+      <c r="C133" s="71" t="s">
+        <v>428</v>
       </c>
       <c r="D133" s="69">
         <v>10</v>
@@ -13909,10 +13909,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="72">
         <v>1</v>
       </c>
     </row>
@@ -13920,8 +13920,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13971,10 +13971,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="72" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13982,17 +13982,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="72">
         <v>1</v>
       </c>
     </row>
@@ -14000,8 +14000,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -14106,10 +14106,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="73">
         <v>1</v>
       </c>
     </row>
@@ -14117,8 +14117,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -47124,10 +47124,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="72" t="s">
         <v>277</v>
       </c>
     </row>
@@ -47135,8 +47135,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -47239,16 +47239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_2.9/task_server.xlsx
+++ b/config_2.9/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="430">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1734,7 +1734,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xnfd_1</t>
+    <t>prop_gdn_xnfd</t>
+  </si>
+  <si>
+    <t>_common_rank_gdn_004_jzbd_rank</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2093,6 +2096,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11154,11 +11166,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13275,16 +13287,16 @@
       <c r="A116" s="48">
         <v>115</v>
       </c>
-      <c r="B116" s="57">
+      <c r="B116" s="69">
         <v>110</v>
       </c>
-      <c r="C116" s="42" t="s">
+      <c r="C116" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="69">
         <v>1</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13292,16 +13304,16 @@
       <c r="A117" s="48">
         <v>116</v>
       </c>
-      <c r="B117" s="57">
+      <c r="B117" s="69">
         <v>110</v>
       </c>
-      <c r="C117" s="42" t="s">
+      <c r="C117" s="73" t="s">
         <v>428</v>
       </c>
-      <c r="D117" s="68">
+      <c r="D117" s="69">
         <v>10</v>
       </c>
-      <c r="E117" s="68">
+      <c r="E117" s="69">
         <v>1</v>
       </c>
       <c r="F117" s="68"/>
@@ -13311,88 +13323,90 @@
       <c r="A118" s="48">
         <v>117</v>
       </c>
-      <c r="B118" s="57">
-        <v>111</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D118" s="4">
+      <c r="B118" s="69">
+        <v>110</v>
+      </c>
+      <c r="C118" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" s="69">
+        <v>10</v>
+      </c>
+      <c r="E118" s="69">
         <v>1</v>
       </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="48">
         <v>118</v>
       </c>
-      <c r="B119" s="57">
+      <c r="B119" s="69">
         <v>111</v>
       </c>
-      <c r="C119" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="D119" s="68">
-        <v>10</v>
-      </c>
-      <c r="E119" s="68">
+      <c r="C119" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" s="69">
         <v>1</v>
       </c>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
+      <c r="E119" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="48">
         <v>119</v>
       </c>
-      <c r="B120" s="57">
-        <v>112</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D120" s="4">
+      <c r="B120" s="69">
+        <v>111</v>
+      </c>
+      <c r="C120" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D120" s="69">
+        <v>10</v>
+      </c>
+      <c r="E120" s="69">
         <v>1</v>
       </c>
-      <c r="E120" s="4">
-        <v>1</v>
-      </c>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="48">
         <v>120</v>
       </c>
-      <c r="B121" s="57">
-        <v>112</v>
-      </c>
-      <c r="C121" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="D121" s="68">
+      <c r="B121" s="69">
+        <v>111</v>
+      </c>
+      <c r="C121" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="69">
         <v>10</v>
       </c>
-      <c r="E121" s="68">
+      <c r="E121" s="69">
         <v>1</v>
       </c>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="48">
         <v>121</v>
       </c>
-      <c r="B122" s="57">
-        <v>113</v>
-      </c>
-      <c r="C122" s="42" t="s">
+      <c r="B122" s="69">
+        <v>112</v>
+      </c>
+      <c r="C122" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="69">
         <v>1</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13400,16 +13414,16 @@
       <c r="A123" s="48">
         <v>122</v>
       </c>
-      <c r="B123" s="57">
-        <v>113</v>
-      </c>
-      <c r="C123" s="42" t="s">
+      <c r="B123" s="69">
+        <v>112</v>
+      </c>
+      <c r="C123" s="73" t="s">
         <v>428</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D123" s="69">
         <v>10</v>
       </c>
-      <c r="E123" s="68">
+      <c r="E123" s="69">
         <v>1</v>
       </c>
       <c r="F123" s="68"/>
@@ -13419,200 +13433,198 @@
       <c r="A124" s="48">
         <v>123</v>
       </c>
-      <c r="B124" s="57">
-        <v>114</v>
-      </c>
-      <c r="C124" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D124" s="4">
+      <c r="B124" s="69">
+        <v>112</v>
+      </c>
+      <c r="C124" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D124" s="69">
+        <v>10</v>
+      </c>
+      <c r="E124" s="69">
         <v>1</v>
       </c>
-      <c r="E124" s="4">
-        <v>1</v>
-      </c>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="48">
         <v>124</v>
       </c>
-      <c r="B125" s="57">
-        <v>114</v>
-      </c>
-      <c r="C125" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="D125" s="68">
-        <v>10</v>
-      </c>
-      <c r="E125" s="68">
+      <c r="B125" s="69">
+        <v>113</v>
+      </c>
+      <c r="C125" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="D125" s="69">
         <v>1</v>
       </c>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
+      <c r="E125" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="48">
         <v>125</v>
       </c>
-      <c r="B126" s="57">
-        <v>115</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D126" s="4">
+      <c r="B126" s="69">
+        <v>113</v>
+      </c>
+      <c r="C126" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" s="69">
+        <v>10</v>
+      </c>
+      <c r="E126" s="69">
         <v>1</v>
       </c>
-      <c r="E126" s="4">
-        <v>1</v>
-      </c>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="48">
         <v>126</v>
       </c>
-      <c r="B127" s="57">
-        <v>115</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="D127" s="68">
+      <c r="B127" s="69">
+        <v>113</v>
+      </c>
+      <c r="C127" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="69">
         <v>10</v>
       </c>
-      <c r="E127" s="68">
+      <c r="E127" s="69">
         <v>1</v>
       </c>
-      <c r="F127" s="68"/>
-      <c r="G127" s="68"/>
-    </row>
-    <row r="128" spans="1:7" s="67" customFormat="1">
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="48">
         <v>127</v>
       </c>
-      <c r="B128" s="65">
-        <v>116</v>
-      </c>
-      <c r="C128" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="D128" s="65">
-        <v>50000</v>
-      </c>
-      <c r="E128" s="65">
+      <c r="B128" s="69">
+        <v>114</v>
+      </c>
+      <c r="C128" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="D128" s="69">
         <v>1</v>
       </c>
-      <c r="F128" s="65"/>
-      <c r="G128" s="65"/>
-    </row>
-    <row r="129" spans="1:7" s="67" customFormat="1">
+      <c r="E128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="48">
         <v>128</v>
       </c>
-      <c r="B129" s="65">
-        <v>116</v>
-      </c>
-      <c r="C129" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="D129" s="65">
-        <v>100</v>
-      </c>
-      <c r="E129" s="65">
+      <c r="B129" s="69">
+        <v>114</v>
+      </c>
+      <c r="C129" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" s="69">
+        <v>10</v>
+      </c>
+      <c r="E129" s="69">
         <v>1</v>
       </c>
-      <c r="F129" s="65"/>
-      <c r="G129" s="65"/>
-    </row>
-    <row r="130" spans="1:7" s="67" customFormat="1">
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="48">
         <v>129</v>
       </c>
-      <c r="B130" s="65">
-        <v>117</v>
-      </c>
-      <c r="C130" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="D130" s="65">
-        <v>5</v>
-      </c>
-      <c r="E130" s="65">
+      <c r="B130" s="69">
+        <v>114</v>
+      </c>
+      <c r="C130" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D130" s="69">
+        <v>10</v>
+      </c>
+      <c r="E130" s="69">
         <v>1</v>
       </c>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-    </row>
-    <row r="131" spans="1:7" s="67" customFormat="1">
+      <c r="F130" s="70"/>
+      <c r="G130" s="70"/>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="48">
         <v>130</v>
       </c>
-      <c r="B131" s="65">
-        <v>117</v>
-      </c>
-      <c r="C131" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="D131" s="65">
-        <v>200</v>
-      </c>
-      <c r="E131" s="65">
+      <c r="B131" s="69">
+        <v>115</v>
+      </c>
+      <c r="C131" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" s="69">
         <v>1</v>
       </c>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-    </row>
-    <row r="132" spans="1:7" s="67" customFormat="1">
+      <c r="E131" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="48">
         <v>131</v>
       </c>
-      <c r="B132" s="65">
-        <v>118</v>
-      </c>
-      <c r="C132" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="D132" s="65">
+      <c r="B132" s="69">
+        <v>115</v>
+      </c>
+      <c r="C132" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D132" s="69">
         <v>10</v>
       </c>
-      <c r="E132" s="65">
+      <c r="E132" s="69">
         <v>1</v>
       </c>
-      <c r="F132" s="65"/>
-      <c r="G132" s="65"/>
-    </row>
-    <row r="133" spans="1:7" s="67" customFormat="1">
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="48">
         <v>132</v>
       </c>
-      <c r="B133" s="65">
-        <v>118</v>
-      </c>
-      <c r="C133" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="D133" s="65">
-        <v>100000</v>
-      </c>
-      <c r="E133" s="65">
+      <c r="B133" s="69">
+        <v>115</v>
+      </c>
+      <c r="C133" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D133" s="69">
+        <v>10</v>
+      </c>
+      <c r="E133" s="69">
         <v>1</v>
       </c>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
     </row>
     <row r="134" spans="1:7" s="67" customFormat="1">
       <c r="A134" s="48">
         <v>133</v>
       </c>
       <c r="B134" s="65">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D134" s="65">
-        <v>20</v>
+        <v>50000</v>
       </c>
       <c r="E134" s="65">
         <v>1</v>
@@ -13625,19 +13637,133 @@
         <v>134</v>
       </c>
       <c r="B135" s="65">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D135" s="65">
-        <v>500000</v>
+        <v>100</v>
       </c>
       <c r="E135" s="65">
         <v>1</v>
       </c>
       <c r="F135" s="65"/>
       <c r="G135" s="65"/>
+    </row>
+    <row r="136" spans="1:7" s="67" customFormat="1">
+      <c r="A136" s="48">
+        <v>135</v>
+      </c>
+      <c r="B136" s="65">
+        <v>117</v>
+      </c>
+      <c r="C136" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="D136" s="65">
+        <v>5</v>
+      </c>
+      <c r="E136" s="65">
+        <v>1</v>
+      </c>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+    </row>
+    <row r="137" spans="1:7" s="67" customFormat="1">
+      <c r="A137" s="48">
+        <v>136</v>
+      </c>
+      <c r="B137" s="65">
+        <v>117</v>
+      </c>
+      <c r="C137" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="D137" s="65">
+        <v>200</v>
+      </c>
+      <c r="E137" s="65">
+        <v>1</v>
+      </c>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+    </row>
+    <row r="138" spans="1:7" s="67" customFormat="1">
+      <c r="A138" s="48">
+        <v>137</v>
+      </c>
+      <c r="B138" s="65">
+        <v>118</v>
+      </c>
+      <c r="C138" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="D138" s="65">
+        <v>10</v>
+      </c>
+      <c r="E138" s="65">
+        <v>1</v>
+      </c>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+    </row>
+    <row r="139" spans="1:7" s="67" customFormat="1">
+      <c r="A139" s="48">
+        <v>138</v>
+      </c>
+      <c r="B139" s="65">
+        <v>118</v>
+      </c>
+      <c r="C139" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D139" s="65">
+        <v>100000</v>
+      </c>
+      <c r="E139" s="65">
+        <v>1</v>
+      </c>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+    </row>
+    <row r="140" spans="1:7" s="67" customFormat="1">
+      <c r="A140" s="48">
+        <v>139</v>
+      </c>
+      <c r="B140" s="65">
+        <v>119</v>
+      </c>
+      <c r="C140" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="D140" s="65">
+        <v>20</v>
+      </c>
+      <c r="E140" s="65">
+        <v>1</v>
+      </c>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+    </row>
+    <row r="141" spans="1:7" s="67" customFormat="1">
+      <c r="A141" s="48">
+        <v>140</v>
+      </c>
+      <c r="B141" s="65">
+        <v>119</v>
+      </c>
+      <c r="C141" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D141" s="65">
+        <v>500000</v>
+      </c>
+      <c r="E141" s="65">
+        <v>1</v>
+      </c>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -13783,10 +13909,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="71">
         <v>1</v>
       </c>
     </row>
@@ -13794,8 +13920,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13845,10 +13971,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="71" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13856,17 +13982,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="71">
         <v>1</v>
       </c>
     </row>
@@ -13874,8 +14000,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -13980,10 +14106,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="72">
         <v>1</v>
       </c>
     </row>
@@ -13991,8 +14117,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -46998,10 +47124,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="71" t="s">
         <v>277</v>
       </c>
     </row>
@@ -47009,8 +47135,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -47113,16 +47239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_2.9/task_server.xlsx
+++ b/config_2.9/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="429">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1662,10 +1662,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -1730,13 +1726,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>_common_rank_gdn_004_jzbd_rank</t>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>task_1000321</t>
   </si>
   <si>
-    <t>shop_gold_sum</t>
+    <t>task_1000321</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2095,10 +2092,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2385,9 +2382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5425,7 +5422,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5734,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D94" s="47" t="s">
         <v>409</v>
@@ -8007,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
@@ -8203,7 +8200,7 @@
         <v>412</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I94" s="42" t="s">
         <v>411</v>
@@ -8225,11 +8222,11 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I95" s="42" t="s">
         <v>411</v>
@@ -9649,7 +9646,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9768,7 +9765,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9785,7 +9782,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D90" s="57">
         <v>0</v>
@@ -9979,7 +9976,7 @@
         <v>94</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D103" s="11">
         <v>0</v>
@@ -11166,11 +11163,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13105,7 +13102,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13290,7 +13287,7 @@
       <c r="B116" s="69">
         <v>110</v>
       </c>
-      <c r="C116" s="71" t="s">
+      <c r="C116" s="70" t="s">
         <v>221</v>
       </c>
       <c r="D116" s="69">
@@ -13307,11 +13304,11 @@
       <c r="B117" s="69">
         <v>110</v>
       </c>
-      <c r="C117" s="71" t="s">
+      <c r="C117" s="70" t="s">
         <v>428</v>
       </c>
       <c r="D117" s="69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E117" s="69">
         <v>1</v>
@@ -13324,19 +13321,17 @@
         <v>117</v>
       </c>
       <c r="B118" s="69">
-        <v>110</v>
-      </c>
-      <c r="C118" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="D118" s="69">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="C118" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118" s="71">
+        <v>100</v>
       </c>
       <c r="E118" s="69">
         <v>1</v>
       </c>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="48">
@@ -13345,8 +13340,8 @@
       <c r="B119" s="69">
         <v>111</v>
       </c>
-      <c r="C119" s="71" t="s">
-        <v>413</v>
+      <c r="C119" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="D119" s="69">
         <v>1</v>
@@ -13354,53 +13349,53 @@
       <c r="E119" s="69">
         <v>1</v>
       </c>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="48">
         <v>119</v>
       </c>
       <c r="B120" s="69">
-        <v>111</v>
-      </c>
-      <c r="C120" s="71" t="s">
-        <v>428</v>
+        <v>112</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>221</v>
       </c>
       <c r="D120" s="69">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E120" s="69">
         <v>1</v>
       </c>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="48">
         <v>120</v>
       </c>
       <c r="B121" s="69">
-        <v>111</v>
-      </c>
-      <c r="C121" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="70" t="s">
         <v>427</v>
       </c>
       <c r="D121" s="69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E121" s="69">
         <v>1</v>
       </c>
-      <c r="F121" s="70"/>
-      <c r="G121" s="70"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="48">
         <v>121</v>
       </c>
       <c r="B122" s="69">
-        <v>112</v>
-      </c>
-      <c r="C122" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="70" t="s">
         <v>221</v>
       </c>
       <c r="D122" s="69">
@@ -13415,13 +13410,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="69">
-        <v>112</v>
-      </c>
-      <c r="C123" s="71" t="s">
-        <v>428</v>
+        <v>113</v>
+      </c>
+      <c r="C123" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="D123" s="69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E123" s="69">
         <v>1</v>
@@ -13434,197 +13429,199 @@
         <v>123</v>
       </c>
       <c r="B124" s="69">
-        <v>112</v>
-      </c>
-      <c r="C124" s="71" t="s">
-        <v>427</v>
+        <v>114</v>
+      </c>
+      <c r="C124" s="70" t="s">
+        <v>221</v>
       </c>
       <c r="D124" s="69">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E124" s="69">
         <v>1</v>
       </c>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="48">
         <v>124</v>
       </c>
       <c r="B125" s="69">
-        <v>113</v>
-      </c>
-      <c r="C125" s="71" t="s">
-        <v>221</v>
+        <v>114</v>
+      </c>
+      <c r="C125" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="D125" s="69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E125" s="69">
         <v>1</v>
       </c>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="48">
         <v>125</v>
       </c>
       <c r="B126" s="69">
-        <v>113</v>
-      </c>
-      <c r="C126" s="71" t="s">
-        <v>428</v>
+        <v>115</v>
+      </c>
+      <c r="C126" s="70" t="s">
+        <v>221</v>
       </c>
       <c r="D126" s="69">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E126" s="69">
         <v>1</v>
       </c>
-      <c r="F126" s="68"/>
-      <c r="G126" s="68"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="48">
         <v>126</v>
       </c>
       <c r="B127" s="69">
-        <v>113</v>
-      </c>
-      <c r="C127" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="70" t="s">
         <v>427</v>
       </c>
       <c r="D127" s="69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E127" s="69">
         <v>1</v>
       </c>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+    </row>
+    <row r="128" spans="1:7" s="67" customFormat="1">
       <c r="A128" s="48">
         <v>127</v>
       </c>
-      <c r="B128" s="69">
-        <v>114</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="D128" s="69">
-        <v>100</v>
-      </c>
-      <c r="E128" s="69">
+      <c r="B128" s="65">
+        <v>116</v>
+      </c>
+      <c r="C128" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="D128" s="65">
+        <v>50000</v>
+      </c>
+      <c r="E128" s="65">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+    </row>
+    <row r="129" spans="1:7" s="67" customFormat="1">
       <c r="A129" s="48">
         <v>128</v>
       </c>
-      <c r="B129" s="69">
-        <v>114</v>
-      </c>
-      <c r="C129" s="71" t="s">
-        <v>428</v>
-      </c>
-      <c r="D129" s="69">
-        <v>10</v>
-      </c>
-      <c r="E129" s="69">
+      <c r="B129" s="65">
+        <v>116</v>
+      </c>
+      <c r="C129" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="D129" s="65">
+        <v>100</v>
+      </c>
+      <c r="E129" s="65">
         <v>1</v>
       </c>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+    </row>
+    <row r="130" spans="1:7" s="67" customFormat="1">
       <c r="A130" s="48">
         <v>129</v>
       </c>
-      <c r="B130" s="69">
-        <v>114</v>
-      </c>
-      <c r="C130" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="D130" s="69">
-        <v>10</v>
-      </c>
-      <c r="E130" s="69">
+      <c r="B130" s="65">
+        <v>117</v>
+      </c>
+      <c r="C130" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D130" s="65">
+        <v>5</v>
+      </c>
+      <c r="E130" s="65">
         <v>1</v>
       </c>
-      <c r="F130" s="70"/>
-      <c r="G130" s="70"/>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+    </row>
+    <row r="131" spans="1:7" s="67" customFormat="1">
       <c r="A131" s="48">
         <v>130</v>
       </c>
-      <c r="B131" s="69">
-        <v>115</v>
-      </c>
-      <c r="C131" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="69">
-        <v>500</v>
-      </c>
-      <c r="E131" s="69">
+      <c r="B131" s="65">
+        <v>117</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="D131" s="65">
+        <v>200</v>
+      </c>
+      <c r="E131" s="65">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+    </row>
+    <row r="132" spans="1:7" s="67" customFormat="1">
       <c r="A132" s="48">
         <v>131</v>
       </c>
-      <c r="B132" s="69">
-        <v>115</v>
-      </c>
-      <c r="C132" s="71" t="s">
-        <v>428</v>
-      </c>
-      <c r="D132" s="69">
+      <c r="B132" s="65">
+        <v>118</v>
+      </c>
+      <c r="C132" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D132" s="65">
         <v>10</v>
       </c>
-      <c r="E132" s="69">
+      <c r="E132" s="65">
         <v>1</v>
       </c>
-      <c r="F132" s="68"/>
-      <c r="G132" s="68"/>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+    </row>
+    <row r="133" spans="1:7" s="67" customFormat="1">
       <c r="A133" s="48">
         <v>132</v>
       </c>
-      <c r="B133" s="69">
-        <v>115</v>
-      </c>
-      <c r="C133" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="D133" s="69">
-        <v>10</v>
-      </c>
-      <c r="E133" s="69">
+      <c r="B133" s="65">
+        <v>118</v>
+      </c>
+      <c r="C133" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="D133" s="65">
+        <v>100000</v>
+      </c>
+      <c r="E133" s="65">
         <v>1</v>
       </c>
-      <c r="F133" s="70"/>
-      <c r="G133" s="70"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
     </row>
     <row r="134" spans="1:7" s="67" customFormat="1">
       <c r="A134" s="48">
         <v>133</v>
       </c>
       <c r="B134" s="65">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D134" s="65">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="E134" s="65">
         <v>1</v>
@@ -13637,133 +13634,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="65">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D135" s="65">
-        <v>100</v>
+        <v>500000</v>
       </c>
       <c r="E135" s="65">
         <v>1</v>
       </c>
       <c r="F135" s="65"/>
       <c r="G135" s="65"/>
-    </row>
-    <row r="136" spans="1:7" s="67" customFormat="1">
-      <c r="A136" s="48">
-        <v>135</v>
-      </c>
-      <c r="B136" s="65">
-        <v>117</v>
-      </c>
-      <c r="C136" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="D136" s="65">
-        <v>5</v>
-      </c>
-      <c r="E136" s="65">
-        <v>1</v>
-      </c>
-      <c r="F136" s="65"/>
-      <c r="G136" s="65"/>
-    </row>
-    <row r="137" spans="1:7" s="67" customFormat="1">
-      <c r="A137" s="48">
-        <v>136</v>
-      </c>
-      <c r="B137" s="65">
-        <v>117</v>
-      </c>
-      <c r="C137" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="D137" s="65">
-        <v>200</v>
-      </c>
-      <c r="E137" s="65">
-        <v>1</v>
-      </c>
-      <c r="F137" s="65"/>
-      <c r="G137" s="65"/>
-    </row>
-    <row r="138" spans="1:7" s="67" customFormat="1">
-      <c r="A138" s="48">
-        <v>137</v>
-      </c>
-      <c r="B138" s="65">
-        <v>118</v>
-      </c>
-      <c r="C138" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="D138" s="65">
-        <v>10</v>
-      </c>
-      <c r="E138" s="65">
-        <v>1</v>
-      </c>
-      <c r="F138" s="65"/>
-      <c r="G138" s="65"/>
-    </row>
-    <row r="139" spans="1:7" s="67" customFormat="1">
-      <c r="A139" s="48">
-        <v>138</v>
-      </c>
-      <c r="B139" s="65">
-        <v>118</v>
-      </c>
-      <c r="C139" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="D139" s="65">
-        <v>100000</v>
-      </c>
-      <c r="E139" s="65">
-        <v>1</v>
-      </c>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-    </row>
-    <row r="140" spans="1:7" s="67" customFormat="1">
-      <c r="A140" s="48">
-        <v>139</v>
-      </c>
-      <c r="B140" s="65">
-        <v>119</v>
-      </c>
-      <c r="C140" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="D140" s="65">
-        <v>20</v>
-      </c>
-      <c r="E140" s="65">
-        <v>1</v>
-      </c>
-      <c r="F140" s="65"/>
-      <c r="G140" s="65"/>
-    </row>
-    <row r="141" spans="1:7" s="67" customFormat="1">
-      <c r="A141" s="48">
-        <v>140</v>
-      </c>
-      <c r="B141" s="65">
-        <v>119</v>
-      </c>
-      <c r="C141" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="D141" s="65">
-        <v>500000</v>
-      </c>
-      <c r="E141" s="65">
-        <v>1</v>
-      </c>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -47239,16 +47122,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_2.9/task_server.xlsx
+++ b/config_2.9/task_server.xlsx
@@ -1666,10 +1666,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -1738,6 +1734,10 @@
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5425,7 +5425,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D94" s="47" t="s">
         <v>409</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
@@ -8203,7 +8203,7 @@
         <v>412</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I94" s="42" t="s">
         <v>411</v>
@@ -8225,11 +8225,11 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I95" s="42" t="s">
         <v>411</v>
@@ -9649,7 +9649,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D90" s="57">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>94</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D103" s="11">
         <v>0</v>
@@ -11169,8 +11169,8 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13104,8 +13104,8 @@
       <c r="B106" s="41">
         <v>105</v>
       </c>
-      <c r="C106" s="41" t="s">
-        <v>221</v>
+      <c r="C106" s="42" t="s">
+        <v>429</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13291,10 +13291,10 @@
         <v>110</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="D116" s="69">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E116" s="69">
         <v>1</v>
@@ -13308,7 +13308,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D117" s="69">
         <v>10</v>
@@ -13327,7 +13327,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D118" s="69">
         <v>10</v>
@@ -13363,7 +13363,7 @@
         <v>111</v>
       </c>
       <c r="C120" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D120" s="69">
         <v>10</v>
@@ -13382,7 +13382,7 @@
         <v>111</v>
       </c>
       <c r="C121" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D121" s="69">
         <v>10</v>
@@ -13401,10 +13401,10 @@
         <v>112</v>
       </c>
       <c r="C122" s="71" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="D122" s="69">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E122" s="69">
         <v>1</v>
@@ -13418,7 +13418,7 @@
         <v>112</v>
       </c>
       <c r="C123" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D123" s="69">
         <v>10</v>
@@ -13437,7 +13437,7 @@
         <v>112</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D124" s="69">
         <v>10</v>
@@ -13456,10 +13456,10 @@
         <v>113</v>
       </c>
       <c r="C125" s="71" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="D125" s="69">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E125" s="69">
         <v>1</v>
@@ -13473,7 +13473,7 @@
         <v>113</v>
       </c>
       <c r="C126" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D126" s="69">
         <v>10</v>
@@ -13492,7 +13492,7 @@
         <v>113</v>
       </c>
       <c r="C127" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D127" s="69">
         <v>10</v>
@@ -13511,10 +13511,10 @@
         <v>114</v>
       </c>
       <c r="C128" s="71" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="D128" s="69">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E128" s="69">
         <v>1</v>
@@ -13528,7 +13528,7 @@
         <v>114</v>
       </c>
       <c r="C129" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D129" s="69">
         <v>10</v>
@@ -13547,7 +13547,7 @@
         <v>114</v>
       </c>
       <c r="C130" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D130" s="69">
         <v>10</v>
@@ -13566,10 +13566,10 @@
         <v>115</v>
       </c>
       <c r="C131" s="71" t="s">
-        <v>414</v>
+        <v>221</v>
       </c>
       <c r="D131" s="69">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E131" s="69">
         <v>1</v>
@@ -13583,7 +13583,7 @@
         <v>115</v>
       </c>
       <c r="C132" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D132" s="69">
         <v>10</v>
@@ -13602,7 +13602,7 @@
         <v>115</v>
       </c>
       <c r="C133" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D133" s="69">
         <v>10</v>
@@ -13621,7 +13621,7 @@
         <v>116</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D134" s="65">
         <v>50000</v>
@@ -13640,7 +13640,7 @@
         <v>116</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D135" s="65">
         <v>100</v>
@@ -13659,7 +13659,7 @@
         <v>117</v>
       </c>
       <c r="C136" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D136" s="65">
         <v>5</v>
@@ -13678,7 +13678,7 @@
         <v>117</v>
       </c>
       <c r="C137" s="66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D137" s="65">
         <v>200</v>
@@ -13697,7 +13697,7 @@
         <v>118</v>
       </c>
       <c r="C138" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D138" s="65">
         <v>10</v>
@@ -13716,7 +13716,7 @@
         <v>118</v>
       </c>
       <c r="C139" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D139" s="65">
         <v>100000</v>
@@ -13735,7 +13735,7 @@
         <v>119</v>
       </c>
       <c r="C140" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D140" s="65">
         <v>20</v>
@@ -13754,7 +13754,7 @@
         <v>119</v>
       </c>
       <c r="C141" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D141" s="65">
         <v>500000</v>
@@ -13768,7 +13768,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47239,16 +47239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
